--- a/TryJsonToObject/TryJsonToObject/bin/Debug/net5.0/Cards.xlsx
+++ b/TryJsonToObject/TryJsonToObject/bin/Debug/net5.0/Cards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altam\OneDrive\Documents\GIT\MechsAndMagesPrototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altam\OneDrive\Documents\GIT\MechsAndMagesPrototype\TryJsonToObject\TryJsonToObject\bin\Debug\net5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE88D3-5EA5-4112-A616-568245127FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CE5BD3-B28C-467F-8CA4-7F3A8FD0C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,13 +1202,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(1000,999999)</f>
-        <v>7274</v>
+        <v>574614</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,7 +1306,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L49" ca="1" si="0">RANDBETWEEN(1000,999999)</f>
-        <v>964584</v>
+        <v>759365</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1333,7 +1336,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>658608</v>
+        <v>842851</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1360,7 +1363,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>357860</v>
+        <v>284185</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,7 +1393,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>671153</v>
+        <v>588100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1423,7 +1426,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>397939</v>
+        <v>780493</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1453,7 +1456,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>891944</v>
+        <v>840639</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1483,7 +1486,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>710986</v>
+        <v>99448</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>247887</v>
+        <v>599816</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,7 +1543,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>552084</v>
+        <v>830316</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1570,7 +1573,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>218476</v>
+        <v>357034</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1606,7 +1609,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>602854</v>
+        <v>926204</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1636,7 +1639,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>222540</v>
+        <v>669029</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1666,7 +1669,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>589614</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,7 +1699,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>561438</v>
+        <v>593286</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,7 +1726,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>966502</v>
+        <v>823903</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1753,7 +1756,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="0"/>
-        <v>946279</v>
+        <v>844826</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,7 +1783,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="0"/>
-        <v>286961</v>
+        <v>117705</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,7 +1810,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="0"/>
-        <v>308153</v>
+        <v>863253</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1837,7 +1840,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="0"/>
-        <v>98235</v>
+        <v>274609</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="0"/>
-        <v>297542</v>
+        <v>326700</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="0"/>
-        <v>40670</v>
+        <v>280364</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1930,7 +1933,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="0"/>
-        <v>274897</v>
+        <v>782401</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1957,7 +1960,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>349773</v>
+        <v>638166</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1987,7 +1990,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="0"/>
-        <v>678544</v>
+        <v>886412</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2014,7 +2017,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="0"/>
-        <v>253892</v>
+        <v>829103</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2044,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="0"/>
-        <v>491429</v>
+        <v>881503</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2071,7 +2074,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="0"/>
-        <v>278821</v>
+        <v>67437</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2101,7 +2104,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="0"/>
-        <v>762911</v>
+        <v>848557</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2131,7 +2134,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="0"/>
-        <v>743894</v>
+        <v>430361</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2161,7 +2164,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="0"/>
-        <v>327888</v>
+        <v>152212</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,7 +2194,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="0"/>
-        <v>905838</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2224,7 +2227,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="0"/>
-        <v>931894</v>
+        <v>562894</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2251,7 +2254,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="0"/>
-        <v>984863</v>
+        <v>624064</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2281,7 +2284,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="0"/>
-        <v>850011</v>
+        <v>768165</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,7 +2311,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="0"/>
-        <v>871916</v>
+        <v>61052</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,7 +2338,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="0"/>
-        <v>549459</v>
+        <v>448623</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2362,7 +2365,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="0"/>
-        <v>342555</v>
+        <v>141382</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2395,7 +2398,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="0"/>
-        <v>992716</v>
+        <v>984359</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2425,7 +2428,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="0"/>
-        <v>654157</v>
+        <v>896899</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2455,7 +2458,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="0"/>
-        <v>171059</v>
+        <v>48603</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2482,7 +2485,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="0"/>
-        <v>632543</v>
+        <v>148793</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2515,7 +2518,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="0"/>
-        <v>584255</v>
+        <v>740365</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="0"/>
-        <v>428391</v>
+        <v>67176</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,7 +2575,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="0"/>
-        <v>195753</v>
+        <v>38926</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2599,7 +2602,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="0"/>
-        <v>123502</v>
+        <v>550364</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,7 +2623,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="0"/>
-        <v>460362</v>
+        <v>795695</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2641,7 +2644,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="0"/>
-        <v>705634</v>
+        <v>460402</v>
       </c>
     </row>
   </sheetData>
